--- a/src/results/quantized/prompt_2_results.xlsx
+++ b/src/results/quantized/prompt_2_results.xlsx
@@ -71,7 +71,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -478,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -501,7 +501,7 @@
         <v>4.328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -524,7 +524,7 @@
         <v>4.328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -547,7 +547,7 @@
         <v>4.328</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
